--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\eclipse-workspace-Sherin-Learning-0925\DemoProjectForTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580EC403-CECC-4E53-97E4-66FD2AD19B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF16BE-0A7E-4381-B23C-788491A2EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{5BFE6EC0-62DB-42C6-AB7C-BC5AEEAA297A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{5BFE6EC0-62DB-42C6-AB7C-BC5AEEAA297A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="signup" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>User name</t>
   </si>
@@ -37,6 +38,45 @@
   </si>
   <si>
     <t>admin@123</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>sherin</t>
+  </si>
+  <si>
+    <t>sherin@email.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Reading</t>
   </si>
 </sst>
 </file>
@@ -416,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD30F24-8587-4FBD-9E07-3066D75E7A81}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -449,4 +489,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95884A99-88D9-4064-B4EC-33F59C4EFF58}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9455A15D-5B75-41EF-8C88-27869EA3CBB0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/testData.xlsx
+++ b/TestData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\eclipse-workspace-Sherin-Learning-0925\DemoProjectForTest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\eclipse-workspace-Sherin-Learning-0925\DemoProjectForTestOriginal\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FF16BE-0A7E-4381-B23C-788491A2EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85609414-9398-4D14-9E96-D2CF5E53B5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{5BFE6EC0-62DB-42C6-AB7C-BC5AEEAA297A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{5BFE6EC0-62DB-42C6-AB7C-BC5AEEAA297A}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>User name</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Hobbies</t>
   </si>
   <si>
-    <t>sherin</t>
-  </si>
-  <si>
-    <t>sherin@email.com</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -77,6 +71,24 @@
   </si>
   <si>
     <t>Reading</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Mathews</t>
+  </si>
+  <si>
+    <t>Sherin</t>
+  </si>
+  <si>
+    <t>a@email.com</t>
+  </si>
+  <si>
+    <t>b@email.com</t>
+  </si>
+  <si>
+    <t>c@email.com</t>
   </si>
 </sst>
 </file>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD30F24-8587-4FBD-9E07-3066D75E7A81}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -482,21 +494,39 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B7D3D265-E4CD-4740-BDEC-F6096D402DEF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{586D1830-EEB3-49EA-802A-29D84B17E775}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{FB4D0808-15BB-41DF-8D7D-9A77D9278BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95884A99-88D9-4064-B4EC-33F59C4EFF58}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -535,30 +565,78 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9455A15D-5B75-41EF-8C88-27869EA3CBB0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E677A1B7-8CC7-4694-9153-B3F1DC6B8F1A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{69DF2666-41A0-44C7-AC8D-D95BAAE7FB80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
